--- a/svigufo/1.bd/importar/arquivo_base.xlsx
+++ b/svigufo/1.bd/importar/arquivo_base.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\Documents\senai\senai-dev-1s2019\svigufo\1.bd\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\helena.strada\Documents\senai\senai-dev-1s2019\svigufo\1.bd\importar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C48F9C56-C3DF-4DBE-B7EF-3B1E4C57C29E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11715" xr2:uid="{E9DDCCEA-61E2-46B0-A7E2-2DC5F399DFAA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11715" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Eventos" sheetId="1" r:id="rId1"/>
+    <sheet name="Exemplos" sheetId="3" r:id="rId2"/>
+    <sheet name="Clinica" sheetId="2" r:id="rId3"/>
+    <sheet name="Evento_MER" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="127">
   <si>
     <t>Nome do Evento</t>
   </si>
@@ -174,15 +176,9 @@
     <t>Tecnologia da Informação</t>
   </si>
   <si>
-    <t>Marketing Digital</t>
-  </si>
-  <si>
     <t>Games</t>
   </si>
   <si>
-    <t>Jogos</t>
-  </si>
-  <si>
     <t>Carla de Bona</t>
   </si>
   <si>
@@ -214,17 +210,221 @@
   </si>
   <si>
     <t>São Paulo - SP</t>
+  </si>
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Id </t>
+  </si>
+  <si>
+    <t>Endereco</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Data_Nascimento</t>
+  </si>
+  <si>
+    <t>Id_TipoPet</t>
+  </si>
+  <si>
+    <t>Pets</t>
+  </si>
+  <si>
+    <t>TipoDePets</t>
+  </si>
+  <si>
+    <t>Racas</t>
+  </si>
+  <si>
+    <t>Meu Pimpão</t>
+  </si>
+  <si>
+    <t>Av Barão Limeira, 539</t>
+  </si>
+  <si>
+    <t>Junior</t>
+  </si>
+  <si>
+    <t>Cachorro</t>
+  </si>
+  <si>
+    <t>Gato</t>
+  </si>
+  <si>
+    <t>Poodle</t>
+  </si>
+  <si>
+    <t>Labrador</t>
+  </si>
+  <si>
+    <t>Siamês</t>
+  </si>
+  <si>
+    <t>SRD</t>
+  </si>
+  <si>
+    <t>Id_RacaPet</t>
+  </si>
+  <si>
+    <t>Loli</t>
+  </si>
+  <si>
+    <t>Donos</t>
+  </si>
+  <si>
+    <t>Id_Dono</t>
+  </si>
+  <si>
+    <t>Sammy</t>
+  </si>
+  <si>
+    <t>Helena</t>
+  </si>
+  <si>
+    <t>Fernando</t>
+  </si>
+  <si>
+    <t>Crv</t>
+  </si>
+  <si>
+    <t>Id_Clinica</t>
+  </si>
+  <si>
+    <t>id_Pet</t>
+  </si>
+  <si>
+    <t>Id_Vet</t>
+  </si>
+  <si>
+    <t>Restam 10 dias de vida</t>
+  </si>
+  <si>
+    <t>DT_Atendimento</t>
+  </si>
+  <si>
+    <t>O paciente esta Ok</t>
+  </si>
+  <si>
+    <t>Veterinarios</t>
+  </si>
+  <si>
+    <t>Atendimentos</t>
+  </si>
+  <si>
+    <t>Clinicas</t>
+  </si>
+  <si>
+    <t>TipoEventos</t>
+  </si>
+  <si>
+    <t>Filmes</t>
+  </si>
+  <si>
+    <t>Titulo</t>
+  </si>
+  <si>
+    <t>Genero</t>
+  </si>
+  <si>
+    <t>Titanic</t>
+  </si>
+  <si>
+    <t>Ação</t>
+  </si>
+  <si>
+    <t>CTMD</t>
+  </si>
+  <si>
+    <t>Vingadores</t>
+  </si>
+  <si>
+    <t>Romance</t>
+  </si>
+  <si>
+    <t>Star Wars</t>
+  </si>
+  <si>
+    <t>Livros</t>
+  </si>
+  <si>
+    <t>Autor</t>
+  </si>
+  <si>
+    <t>ATDM</t>
+  </si>
+  <si>
+    <t>ATDC</t>
+  </si>
+  <si>
+    <t>Senhor dos Aneis</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>teste@teste.com</t>
+  </si>
+  <si>
+    <t>Instituição</t>
+  </si>
+  <si>
+    <t>Logradouro</t>
+  </si>
+  <si>
+    <t>Senai</t>
+  </si>
+  <si>
+    <t>Av. Barão Limeira, 539</t>
+  </si>
+  <si>
+    <t>Eventos</t>
+  </si>
+  <si>
+    <t>Id_TipoEvento</t>
+  </si>
+  <si>
+    <t>C#</t>
+  </si>
+  <si>
+    <t>Lol</t>
+  </si>
+  <si>
+    <t>Usuarios</t>
+  </si>
+  <si>
+    <t>Administrador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email </t>
+  </si>
+  <si>
+    <t>Senha</t>
+  </si>
+  <si>
+    <t>Convites</t>
+  </si>
+  <si>
+    <t>Id_Evento</t>
+  </si>
+  <si>
+    <t>Id_Usuario</t>
+  </si>
+  <si>
+    <t>Tsukamoto</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="[$-416]d\-mmm\-yy;@"/>
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="[$-416]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -232,16 +432,55 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -249,18 +488,178 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -572,11 +971,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{557C390A-5454-4C77-B6DD-5311C0428E69}">
-  <dimension ref="A1:G24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,427 +987,1335 @@
     <col min="5" max="5" width="15.28515625" customWidth="1"/>
     <col min="6" max="6" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="I1" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1" s="7"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>100</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="3">
         <v>43489</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>200</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="4">
+        <v>43641</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="9">
+        <v>1</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>201</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="5">
+        <v>43542</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" s="9">
+        <v>2</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>300</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="5">
+        <v>43571</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5" s="9">
+        <v>3</v>
+      </c>
+      <c r="J5" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="G2" t="s">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>400</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="5">
+        <v>43477</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" s="9">
+        <v>4</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>500</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="4">
+        <v>43789</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="2">
+        <v>2</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>600</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="4">
+        <v>43790</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="2">
+        <v>2</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>700</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="4">
+        <v>43821</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="2">
+        <v>3</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>200</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="2">
-        <v>43641</v>
-      </c>
-      <c r="E3" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>800</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="4">
+        <v>43687</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="F10" s="2">
+        <v>2</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>800</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="3">
+        <v>43591</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="2">
+        <v>2</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>900</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="3">
+        <v>43623</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="2">
+        <v>3</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>201</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="3">
-        <v>43542</v>
-      </c>
-      <c r="E4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>300</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="3">
-        <v>43571</v>
-      </c>
-      <c r="E5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>400</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="3">
-        <v>43477</v>
-      </c>
-      <c r="E6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>500</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="2">
-        <v>43789</v>
-      </c>
-      <c r="E7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>600</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="2">
-        <v>43790</v>
-      </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>700</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="2">
-        <v>43821</v>
-      </c>
-      <c r="E9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>800</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="2">
-        <v>43687</v>
-      </c>
-      <c r="E10" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>1100</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="3">
+        <v>43592</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="2">
+        <v>4</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>1200</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="3">
+        <v>43655</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="2">
+        <v>3</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>1300</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="3">
+        <v>43718</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="2">
+        <v>4</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>1400</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="3">
+        <v>43719</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F10" t="s">
-        <v>47</v>
-      </c>
-      <c r="G10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>800</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="1">
-        <v>43591</v>
-      </c>
-      <c r="E11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>900</v>
-      </c>
-      <c r="B12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="1">
-        <v>43623</v>
-      </c>
-      <c r="E12" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>1100</v>
-      </c>
-      <c r="B13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="1">
-        <v>43592</v>
-      </c>
-      <c r="E13" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" t="s">
-        <v>48</v>
-      </c>
-      <c r="G13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>1200</v>
-      </c>
-      <c r="B14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="1">
-        <v>43655</v>
-      </c>
-      <c r="E14" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="F16" s="2">
+        <v>2</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>1500</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="3">
+        <v>43757</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>1300</v>
-      </c>
-      <c r="B15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="1">
-        <v>43718</v>
-      </c>
-      <c r="E15" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15" t="s">
-        <v>49</v>
-      </c>
-      <c r="G15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>1400</v>
-      </c>
-      <c r="B16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="1">
-        <v>43719</v>
-      </c>
-      <c r="E16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F16" t="s">
-        <v>48</v>
-      </c>
-      <c r="G16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>1500</v>
-      </c>
-      <c r="B17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="1">
-        <v>43757</v>
-      </c>
-      <c r="E17" t="s">
-        <v>42</v>
-      </c>
-      <c r="F17" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" t="s">
-        <v>51</v>
-      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E20" s="4"/>
+      <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I1:J1"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:J16"/>
+  <sheetViews>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="12"/>
+      <c r="F2" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G2" s="12"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" s="28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="19">
+        <v>1</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="22">
+        <v>1</v>
+      </c>
+      <c r="F4" s="19">
+        <v>1</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="19">
+        <v>2</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" s="22">
+        <v>1</v>
+      </c>
+      <c r="F5" s="16">
+        <v>2</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="19">
+        <v>3</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="16">
+        <v>4</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="12"/>
+      <c r="F11" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="29"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="H12" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="I12" s="28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="19">
+        <v>1</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="D13" s="22">
+        <v>2</v>
+      </c>
+      <c r="F13" s="30">
+        <v>1</v>
+      </c>
+      <c r="G13" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="H13" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="I13" s="33">
+        <v>28773</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="19">
+        <v>2</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="D14" s="22">
+        <v>2</v>
+      </c>
+      <c r="F14" s="30">
+        <v>2</v>
+      </c>
+      <c r="G14" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="H14" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="I14" s="33">
+        <v>36664</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="16">
+        <v>3</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="D15" s="18">
+        <v>1</v>
+      </c>
+      <c r="F15" s="34"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="36"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="F11:I11"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="H13" r:id="rId1"/>
+    <hyperlink ref="H14" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:K23"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="6"/>
+    <col min="2" max="2" width="12.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" style="6" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="6" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="22.140625" style="6" customWidth="1"/>
+    <col min="10" max="10" width="21.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.5703125" style="6" customWidth="1"/>
+    <col min="12" max="13" width="9.140625" style="6"/>
+    <col min="14" max="14" width="9.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="12"/>
+      <c r="E3" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="12"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="16">
+        <v>1</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="19">
+        <v>1</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="21">
+        <v>43383</v>
+      </c>
+      <c r="H5" s="20">
+        <v>1</v>
+      </c>
+      <c r="I5" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E6" s="19">
+        <v>2</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" s="21">
+        <v>42873</v>
+      </c>
+      <c r="H6" s="20">
+        <v>4</v>
+      </c>
+      <c r="I6" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E7" s="16">
+        <v>3</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" s="23">
+        <v>42539</v>
+      </c>
+      <c r="H7" s="17">
+        <v>1</v>
+      </c>
+      <c r="I7" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="D11" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="12"/>
+      <c r="H11" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="I11" s="12"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="J12" s="9"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="19">
+        <v>1</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="19">
+        <v>1</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="22">
+        <v>1</v>
+      </c>
+      <c r="H13" s="19">
+        <v>1</v>
+      </c>
+      <c r="I13" s="22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="16">
+        <v>2</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="19">
+        <v>2</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" s="22">
+        <v>1</v>
+      </c>
+      <c r="H14" s="16">
+        <v>2</v>
+      </c>
+      <c r="I14" s="18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D15" s="19">
+        <v>3</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D16" s="19">
+        <v>4</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D17" s="16">
+        <v>5</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="12"/>
+      <c r="G19" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="12"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="I20" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="J20" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="K20" s="15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="19">
+        <v>1</v>
+      </c>
+      <c r="B21" s="20">
+        <v>432551</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" s="22">
+        <v>1</v>
+      </c>
+      <c r="G21" s="19">
+        <v>1</v>
+      </c>
+      <c r="H21" s="20">
+        <v>1</v>
+      </c>
+      <c r="I21" s="20">
+        <v>1</v>
+      </c>
+      <c r="J21" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="K21" s="24">
+        <v>43487</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="16">
+        <v>2</v>
+      </c>
+      <c r="B22" s="17">
+        <v>653655</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="18">
+        <v>1</v>
+      </c>
+      <c r="G22" s="19">
+        <v>2</v>
+      </c>
+      <c r="H22" s="20">
+        <v>2</v>
+      </c>
+      <c r="I22" s="20">
+        <v>2</v>
+      </c>
+      <c r="J22" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="K22" s="24">
+        <v>43486</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G23" s="16">
+        <v>3</v>
+      </c>
+      <c r="H23" s="17">
+        <v>1</v>
+      </c>
+      <c r="I23" s="17">
+        <v>2</v>
+      </c>
+      <c r="J23" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="K23" s="25">
+        <v>43487</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="G19:K19"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="E3:I3"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="12"/>
+      <c r="F2" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="G2" s="11"/>
+      <c r="H2" s="12"/>
+      <c r="J2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="12"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="16">
+        <v>1</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="F4" s="30">
+        <v>1</v>
+      </c>
+      <c r="G4" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="H4" s="39">
+        <v>1</v>
+      </c>
+      <c r="J4" s="30">
+        <v>1</v>
+      </c>
+      <c r="K4" s="39" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="F5" s="34">
+        <v>2</v>
+      </c>
+      <c r="G5" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="H5" s="36">
+        <v>2</v>
+      </c>
+      <c r="J5" s="34">
+        <v>2</v>
+      </c>
+      <c r="K5" s="36" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+      <c r="H7" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="12"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="H8" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="J8" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="K8" s="28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="30">
+        <v>1</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="31">
+        <v>1</v>
+      </c>
+      <c r="E9" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="F9" s="39">
+        <v>12345</v>
+      </c>
+      <c r="H9" s="30">
+        <v>1</v>
+      </c>
+      <c r="I9" s="31">
+        <v>1</v>
+      </c>
+      <c r="J9" s="31">
+        <v>1</v>
+      </c>
+      <c r="K9" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="30">
+        <v>2</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="31">
+        <v>1</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="F10" s="39">
+        <v>12345</v>
+      </c>
+      <c r="H10" s="30">
+        <v>2</v>
+      </c>
+      <c r="I10" s="31">
+        <v>2</v>
+      </c>
+      <c r="J10" s="31">
+        <v>2</v>
+      </c>
+      <c r="K10" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="34">
+        <v>3</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="D11" s="35">
+        <v>0</v>
+      </c>
+      <c r="E11" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="F11" s="36">
+        <v>12345</v>
+      </c>
+      <c r="H11" s="30">
+        <v>3</v>
+      </c>
+      <c r="I11" s="31">
+        <v>1</v>
+      </c>
+      <c r="J11" s="31">
+        <v>3</v>
+      </c>
+      <c r="K11" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H12" s="34">
+        <v>4</v>
+      </c>
+      <c r="I12" s="35">
+        <v>2</v>
+      </c>
+      <c r="J12" s="35">
+        <v>3</v>
+      </c>
+      <c r="K12" s="36">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="H7:K7"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E9" r:id="rId1"/>
+    <hyperlink ref="E10" r:id="rId2"/>
+    <hyperlink ref="E11" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+</worksheet>
 </file>
--- a/svigufo/1.bd/importar/arquivo_base.xlsx
+++ b/svigufo/1.bd/importar/arquivo_base.xlsx
@@ -5,17 +5,22 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\helena.strada\Documents\senai\senai-dev-1s2019\svigufo\1.bd\importar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fernando.henrique\Documents\Senai\1_Semestre_2019\1s2019-t2-sprint-1-bd\importar\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11715" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11712" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Eventos" sheetId="1" r:id="rId1"/>
-    <sheet name="Exemplos" sheetId="3" r:id="rId2"/>
-    <sheet name="Clinica" sheetId="2" r:id="rId3"/>
-    <sheet name="Evento_MER" sheetId="5" r:id="rId4"/>
+    <sheet name="HCursos" sheetId="9" r:id="rId2"/>
+    <sheet name="Planilha2" sheetId="11" r:id="rId3"/>
+    <sheet name="Exemplos" sheetId="3" r:id="rId4"/>
+    <sheet name="Clinica" sheetId="2" r:id="rId5"/>
+    <sheet name="Evento_MER" sheetId="5" r:id="rId6"/>
+    <sheet name="Banda" sheetId="6" r:id="rId7"/>
+    <sheet name="Locadora" sheetId="7" r:id="rId8"/>
+    <sheet name="E-Commerce" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="224">
   <si>
     <t>Nome do Evento</t>
   </si>
@@ -414,6 +419,297 @@
   </si>
   <si>
     <t>Tsukamoto</t>
+  </si>
+  <si>
+    <t>Rock</t>
+  </si>
+  <si>
+    <t>Axé</t>
+  </si>
+  <si>
+    <t>Banda</t>
+  </si>
+  <si>
+    <t>Id_Genero</t>
+  </si>
+  <si>
+    <t>Turma da Helena</t>
+  </si>
+  <si>
+    <t>Cantor</t>
+  </si>
+  <si>
+    <t>Albúm</t>
+  </si>
+  <si>
+    <t>Id_Banda</t>
+  </si>
+  <si>
+    <t>Deu Bug</t>
+  </si>
+  <si>
+    <t>Festa Animada</t>
+  </si>
+  <si>
+    <t>Música</t>
+  </si>
+  <si>
+    <t>Id_Album</t>
+  </si>
+  <si>
+    <t>Meu código não builda</t>
+  </si>
+  <si>
+    <t>Churrasco de domingo</t>
+  </si>
+  <si>
+    <t>Banda_Cantor</t>
+  </si>
+  <si>
+    <t>Id_Cantor</t>
+  </si>
+  <si>
+    <t>Uma empresa possui vários veículos</t>
+  </si>
+  <si>
+    <t>Um veículo possui marca(gm, ford, fiat), modelo(onix, fiesta, argo) e placa</t>
+  </si>
+  <si>
+    <t>Um Cliente (cpf, nome) aluga um ou mais veículos</t>
+  </si>
+  <si>
+    <t>Marca</t>
+  </si>
+  <si>
+    <t>Ford</t>
+  </si>
+  <si>
+    <t>GM</t>
+  </si>
+  <si>
+    <t>Fiat</t>
+  </si>
+  <si>
+    <t>Modelo</t>
+  </si>
+  <si>
+    <t>Id_Marca</t>
+  </si>
+  <si>
+    <t>Onix</t>
+  </si>
+  <si>
+    <t>Fiesta</t>
+  </si>
+  <si>
+    <t>Argo</t>
+  </si>
+  <si>
+    <t>Veiculos</t>
+  </si>
+  <si>
+    <t>Id_Modelo</t>
+  </si>
+  <si>
+    <t>Placa</t>
+  </si>
+  <si>
+    <t>HEL1805</t>
+  </si>
+  <si>
+    <t>FER1010</t>
+  </si>
+  <si>
+    <t>POR1978</t>
+  </si>
+  <si>
+    <t>Empresa</t>
+  </si>
+  <si>
+    <t>Id_Veiculo</t>
+  </si>
+  <si>
+    <t>Unidas</t>
+  </si>
+  <si>
+    <t>Localiza</t>
+  </si>
+  <si>
+    <t>Id_Empresa</t>
+  </si>
+  <si>
+    <t>LEM9876</t>
+  </si>
+  <si>
+    <t>Cliente</t>
+  </si>
+  <si>
+    <t>Cpf</t>
+  </si>
+  <si>
+    <t>Aluguel</t>
+  </si>
+  <si>
+    <t>Id_Cliente</t>
+  </si>
+  <si>
+    <t>Data_Inicio</t>
+  </si>
+  <si>
+    <t>Data_Fim</t>
+  </si>
+  <si>
+    <t>Produto</t>
+  </si>
+  <si>
+    <t>Copo para Café</t>
+  </si>
+  <si>
+    <t>Cursos</t>
+  </si>
+  <si>
+    <t>Acessórios</t>
+  </si>
+  <si>
+    <t>Subcategorias</t>
+  </si>
+  <si>
+    <t>Categorias</t>
+  </si>
+  <si>
+    <t>Informática Básica</t>
+  </si>
+  <si>
+    <t>Desenvolvimento</t>
+  </si>
+  <si>
+    <t>Meio Ambiente</t>
+  </si>
+  <si>
+    <t>Camisetas</t>
+  </si>
+  <si>
+    <t>Id_Categoria</t>
+  </si>
+  <si>
+    <t>Jaqueta</t>
+  </si>
+  <si>
+    <t>Excel Básico</t>
+  </si>
+  <si>
+    <t>Id_SubCategoria</t>
+  </si>
+  <si>
+    <t>Loja</t>
+  </si>
+  <si>
+    <t>SenaiShop</t>
+  </si>
+  <si>
+    <t>Id_loja</t>
+  </si>
+  <si>
+    <t>Pedido</t>
+  </si>
+  <si>
+    <t>Nr_Pedido</t>
+  </si>
+  <si>
+    <t>Data_Pedido</t>
+  </si>
+  <si>
+    <t>Pedido_Produto</t>
+  </si>
+  <si>
+    <t>Id_Pedido</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Em Andamento</t>
+  </si>
+  <si>
+    <t>Entregue</t>
+  </si>
+  <si>
+    <t>Id_Produto</t>
+  </si>
+  <si>
+    <t>Valor</t>
+  </si>
+  <si>
+    <t>E-Commerce - SenaiShop</t>
+  </si>
+  <si>
+    <t>Uma Loja possui várias categorias</t>
+  </si>
+  <si>
+    <t>Uma categoria possui subcategorias</t>
+  </si>
+  <si>
+    <t>Um produto possui uma subcategoria</t>
+  </si>
+  <si>
+    <t>Um cliente efetua um pedido</t>
+  </si>
+  <si>
+    <t>Um pedido pode ter 1 ou vários produtos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nome </t>
+  </si>
+  <si>
+    <t>Id_Professor</t>
+  </si>
+  <si>
+    <t>SQL</t>
+  </si>
+  <si>
+    <t>SQL Agora Vai - Parte 1</t>
+  </si>
+  <si>
+    <t>Informática</t>
+  </si>
+  <si>
+    <t>Excel</t>
+  </si>
+  <si>
+    <t>Informática básica</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>Travou meu computador</t>
+  </si>
+  <si>
+    <t>Professores</t>
+  </si>
+  <si>
+    <t>SQL Agora Vai - Parte 2</t>
+  </si>
+  <si>
+    <t>Cursos_Alunos</t>
+  </si>
+  <si>
+    <t>Id_Aluno</t>
+  </si>
+  <si>
+    <t>Id_Curso</t>
+  </si>
+  <si>
+    <t>Alunos</t>
+  </si>
+  <si>
+    <t>Gabriel</t>
+  </si>
+  <si>
+    <t>João</t>
+  </si>
+  <si>
+    <t>Tadeu</t>
   </si>
 </sst>
 </file>
@@ -573,7 +869,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -581,9 +877,6 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -657,6 +950,45 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -974,24 +1306,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
-    </sheetView>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" customWidth="1"/>
-    <col min="6" max="6" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
+    <col min="6" max="6" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>53</v>
       </c>
@@ -1013,12 +1343,12 @@
       <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="J1" s="7"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J1" s="51"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>100</v>
       </c>
@@ -1040,14 +1370,14 @@
       <c r="G2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>200</v>
       </c>
@@ -1069,14 +1399,14 @@
       <c r="G3" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="9">
-        <v>1</v>
-      </c>
-      <c r="J3" s="9" t="s">
+      <c r="I3" s="8">
+        <v>1</v>
+      </c>
+      <c r="J3" s="8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>201</v>
       </c>
@@ -1098,14 +1428,14 @@
       <c r="G4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="9">
-        <v>2</v>
-      </c>
-      <c r="J4" s="9" t="s">
+      <c r="I4" s="8">
+        <v>2</v>
+      </c>
+      <c r="J4" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>300</v>
       </c>
@@ -1127,14 +1457,14 @@
       <c r="G5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="8">
         <v>3</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>400</v>
       </c>
@@ -1156,14 +1486,14 @@
       <c r="G6" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="8">
         <v>4</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="J6" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>500</v>
       </c>
@@ -1186,7 +1516,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>600</v>
       </c>
@@ -1209,7 +1539,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>700</v>
       </c>
@@ -1232,7 +1562,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>800</v>
       </c>
@@ -1255,7 +1585,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>800</v>
       </c>
@@ -1278,7 +1608,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>900</v>
       </c>
@@ -1301,7 +1631,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>1100</v>
       </c>
@@ -1324,7 +1654,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>1200</v>
       </c>
@@ -1347,7 +1677,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>1300</v>
       </c>
@@ -1370,7 +1700,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>1400</v>
       </c>
@@ -1393,7 +1723,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>1500</v>
       </c>
@@ -1416,10 +1746,10 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>54</v>
       </c>
@@ -1427,17 +1757,17 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>58</v>
       </c>
@@ -1453,207 +1783,635 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="120" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11:E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.5546875" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" customWidth="1"/>
+    <col min="8" max="8" width="15.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="52" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1" s="53"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="52" t="s">
+        <v>175</v>
+      </c>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="40"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="18">
+        <v>1</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="18">
+        <v>1</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="G3" s="37">
+        <v>1</v>
+      </c>
+      <c r="H3" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="15">
+        <v>2</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="18">
+        <v>2</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="G4" s="37">
+        <v>2</v>
+      </c>
+      <c r="H4" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="18">
+        <v>3</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="G5" s="37">
+        <v>1</v>
+      </c>
+      <c r="H5" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="52" t="s">
+        <v>215</v>
+      </c>
+      <c r="B6" s="53"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="15">
+        <v>4</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="G6" s="46">
+        <v>1</v>
+      </c>
+      <c r="H6" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="18">
+        <v>1</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="15">
+        <v>2</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="52" t="s">
+        <v>220</v>
+      </c>
+      <c r="B11" s="53"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="52" t="s">
+        <v>217</v>
+      </c>
+      <c r="E11" s="53"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="18">
+        <v>1</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="18">
+        <v>1</v>
+      </c>
+      <c r="E13" s="21">
+        <v>1</v>
+      </c>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="18">
+        <v>2</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="18">
+        <v>2</v>
+      </c>
+      <c r="E14" s="21">
+        <v>2</v>
+      </c>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="15">
+        <v>3</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="18">
+        <v>1</v>
+      </c>
+      <c r="E15" s="21">
+        <v>2</v>
+      </c>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D16" s="15">
+        <v>2</v>
+      </c>
+      <c r="E16" s="17">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="A11:B11"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:K6"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.88671875" style="6" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1" s="48" t="s">
+        <v>175</v>
+      </c>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="50"/>
+      <c r="J1" s="52" t="s">
+        <v>215</v>
+      </c>
+      <c r="K1" s="53"/>
+    </row>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B2" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B3" s="18">
+        <v>1</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="E3" s="37">
+        <v>1</v>
+      </c>
+      <c r="F3" s="21">
+        <v>1</v>
+      </c>
+      <c r="J3" s="18">
+        <v>1</v>
+      </c>
+      <c r="K3" s="21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B4" s="18">
+        <v>2</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="E4" s="37">
+        <v>2</v>
+      </c>
+      <c r="F4" s="21">
+        <v>1</v>
+      </c>
+      <c r="J4" s="15">
+        <v>2</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B5" s="18">
+        <v>3</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="E5" s="37">
+        <v>1</v>
+      </c>
+      <c r="F5" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B6" s="15">
+        <v>4</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="E6" s="46">
+        <v>1</v>
+      </c>
+      <c r="F6" s="17">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="J1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J16"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="10" t="s">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B2" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="12"/>
-      <c r="F2" s="10" t="s">
+      <c r="C2" s="54"/>
+      <c r="D2" s="53"/>
+      <c r="F2" s="52" t="s">
         <v>97</v>
       </c>
-      <c r="G2" s="12"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="26" t="s">
+      <c r="G2" s="53"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B3" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="27" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="19">
-        <v>1</v>
-      </c>
-      <c r="C4" s="20" t="s">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B4" s="18">
+        <v>1</v>
+      </c>
+      <c r="C4" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="D4" s="22">
-        <v>1</v>
-      </c>
-      <c r="F4" s="19">
-        <v>1</v>
-      </c>
-      <c r="G4" s="22" t="s">
+      <c r="D4" s="21">
+        <v>1</v>
+      </c>
+      <c r="F4" s="18">
+        <v>1</v>
+      </c>
+      <c r="G4" s="21" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="19">
-        <v>2</v>
-      </c>
-      <c r="C5" s="20" t="s">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B5" s="18">
+        <v>2</v>
+      </c>
+      <c r="C5" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="D5" s="22">
-        <v>1</v>
-      </c>
-      <c r="F5" s="16">
-        <v>2</v>
-      </c>
-      <c r="G5" s="18" t="s">
+      <c r="D5" s="21">
+        <v>1</v>
+      </c>
+      <c r="F5" s="15">
+        <v>2</v>
+      </c>
+      <c r="G5" s="17" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="19">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="18">
         <v>3</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="D6" s="22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="16">
+      <c r="D6" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="15">
         <v>4</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="D7" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="10" t="s">
+      <c r="D7" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="12"/>
-      <c r="F11" s="10" t="s">
+      <c r="C11" s="54"/>
+      <c r="D11" s="53"/>
+      <c r="F11" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="29"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="26" t="s">
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="28"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="F12" s="26" t="s">
+      <c r="F12" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="G12" s="27" t="s">
+      <c r="G12" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="H12" s="27" t="s">
+      <c r="H12" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="I12" s="28" t="s">
+      <c r="I12" s="27" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="19">
-        <v>1</v>
-      </c>
-      <c r="C13" s="20" t="s">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="18">
+        <v>1</v>
+      </c>
+      <c r="C13" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="D13" s="22">
-        <v>2</v>
-      </c>
-      <c r="F13" s="30">
-        <v>1</v>
-      </c>
-      <c r="G13" s="31" t="s">
+      <c r="D13" s="21">
+        <v>2</v>
+      </c>
+      <c r="F13" s="29">
+        <v>1</v>
+      </c>
+      <c r="G13" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="H13" s="32" t="s">
+      <c r="H13" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="I13" s="33">
+      <c r="I13" s="32">
         <v>28773</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="19">
-        <v>2</v>
-      </c>
-      <c r="C14" s="20" t="s">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="18">
+        <v>2</v>
+      </c>
+      <c r="C14" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="D14" s="22">
-        <v>2</v>
-      </c>
-      <c r="F14" s="30">
-        <v>2</v>
-      </c>
-      <c r="G14" s="31" t="s">
+      <c r="D14" s="21">
+        <v>2</v>
+      </c>
+      <c r="F14" s="29">
+        <v>2</v>
+      </c>
+      <c r="G14" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="H14" s="32" t="s">
+      <c r="H14" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="I14" s="33">
+      <c r="I14" s="32">
         <v>36664</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="16">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="15">
         <v>3</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="D15" s="18">
-        <v>1</v>
-      </c>
-      <c r="F15" s="34"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="36"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
+      <c r="D15" s="17">
+        <v>1</v>
+      </c>
+      <c r="F15" s="33"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="35"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1671,364 +2429,366 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:K23"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:I3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="6"/>
-    <col min="2" max="2" width="12.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="6"/>
+    <col min="2" max="2" width="12.109375" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="6" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="6" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" style="6" customWidth="1"/>
-    <col min="7" max="7" width="20.28515625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" style="6" customWidth="1"/>
-    <col min="9" max="9" width="22.140625" style="6" customWidth="1"/>
-    <col min="10" max="10" width="21.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.5703125" style="6" customWidth="1"/>
-    <col min="12" max="13" width="9.140625" style="6"/>
-    <col min="14" max="14" width="9.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="6"/>
+    <col min="5" max="5" width="10.6640625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" style="6" customWidth="1"/>
+    <col min="7" max="7" width="20.33203125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" style="6" customWidth="1"/>
+    <col min="9" max="9" width="22.109375" style="6" customWidth="1"/>
+    <col min="10" max="10" width="21.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.5546875" style="6" customWidth="1"/>
+    <col min="12" max="13" width="9.109375" style="6"/>
+    <col min="14" max="14" width="9.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="12"/>
-      <c r="E3" s="10" t="s">
+      <c r="B3" s="54"/>
+      <c r="C3" s="53"/>
+      <c r="E3" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="12"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="53"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="14" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="16">
-        <v>1</v>
-      </c>
-      <c r="B5" s="17" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="15">
+        <v>1</v>
+      </c>
+      <c r="B5" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="E5" s="19">
-        <v>1</v>
-      </c>
-      <c r="F5" s="20" t="s">
+      <c r="E5" s="18">
+        <v>1</v>
+      </c>
+      <c r="F5" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="G5" s="21">
+      <c r="G5" s="20">
         <v>43383</v>
       </c>
-      <c r="H5" s="20">
-        <v>1</v>
-      </c>
-      <c r="I5" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E6" s="19">
-        <v>2</v>
-      </c>
-      <c r="F6" s="20" t="s">
+      <c r="H5" s="19">
+        <v>1</v>
+      </c>
+      <c r="I5" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E6" s="18">
+        <v>2</v>
+      </c>
+      <c r="F6" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="20">
         <v>42873</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="19">
         <v>4</v>
       </c>
-      <c r="I6" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E7" s="16">
+      <c r="I6" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E7" s="15">
         <v>3</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="G7" s="23">
+      <c r="G7" s="22">
         <v>42539</v>
       </c>
-      <c r="H7" s="17">
-        <v>1</v>
-      </c>
-      <c r="I7" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="H7" s="16">
+        <v>1</v>
+      </c>
+      <c r="I7" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="D11" s="10" t="s">
+      <c r="B11" s="53"/>
+      <c r="D11" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="12"/>
-      <c r="H11" s="10" t="s">
+      <c r="E11" s="54"/>
+      <c r="F11" s="53"/>
+      <c r="H11" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="I11" s="12"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+      <c r="I11" s="53"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B12" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="13" t="s">
+      <c r="B12" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E12" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="F12" s="15" t="s">
+      <c r="E12" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="H12" s="13" t="s">
+      <c r="H12" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="I12" s="15" t="s">
+      <c r="I12" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="J12" s="9"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="19">
-        <v>1</v>
-      </c>
-      <c r="B13" s="22" t="s">
+      <c r="J12" s="8"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="18">
+        <v>1</v>
+      </c>
+      <c r="B13" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="D13" s="19">
-        <v>1</v>
-      </c>
-      <c r="E13" s="20" t="s">
+      <c r="D13" s="18">
+        <v>1</v>
+      </c>
+      <c r="E13" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="F13" s="22">
-        <v>1</v>
-      </c>
-      <c r="H13" s="19">
-        <v>1</v>
-      </c>
-      <c r="I13" s="22" t="s">
+      <c r="F13" s="21">
+        <v>1</v>
+      </c>
+      <c r="H13" s="18">
+        <v>1</v>
+      </c>
+      <c r="I13" s="21" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="16">
-        <v>2</v>
-      </c>
-      <c r="B14" s="18" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="15">
+        <v>2</v>
+      </c>
+      <c r="B14" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="D14" s="19">
-        <v>2</v>
-      </c>
-      <c r="E14" s="20" t="s">
+      <c r="D14" s="18">
+        <v>2</v>
+      </c>
+      <c r="E14" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="F14" s="22">
-        <v>1</v>
-      </c>
-      <c r="H14" s="16">
-        <v>2</v>
-      </c>
-      <c r="I14" s="18" t="s">
+      <c r="F14" s="21">
+        <v>1</v>
+      </c>
+      <c r="H14" s="15">
+        <v>2</v>
+      </c>
+      <c r="I14" s="17" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D15" s="19">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D15" s="18">
         <v>3</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="E15" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="F15" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D16" s="19">
+      <c r="F15" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D16" s="18">
         <v>4</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="F16" s="22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D17" s="16">
+      <c r="F16" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D17" s="15">
         <v>5</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="E17" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="F17" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+      <c r="F17" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="12"/>
-      <c r="G19" s="10" t="s">
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="53"/>
+      <c r="G19" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="12"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
+      <c r="H19" s="54"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="53"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="G20" s="13" t="s">
+      <c r="G20" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="H20" s="14" t="s">
+      <c r="H20" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="I20" s="14" t="s">
+      <c r="I20" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="J20" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="K20" s="15" t="s">
+      <c r="J20" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="K20" s="14" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="19">
-        <v>1</v>
-      </c>
-      <c r="B21" s="20">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="18">
+        <v>1</v>
+      </c>
+      <c r="B21" s="19">
         <v>432551</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="D21" s="22">
-        <v>1</v>
-      </c>
-      <c r="G21" s="19">
-        <v>1</v>
-      </c>
-      <c r="H21" s="20">
-        <v>1</v>
-      </c>
-      <c r="I21" s="20">
-        <v>1</v>
-      </c>
-      <c r="J21" s="20" t="s">
+      <c r="D21" s="21">
+        <v>1</v>
+      </c>
+      <c r="G21" s="18">
+        <v>1</v>
+      </c>
+      <c r="H21" s="19">
+        <v>1</v>
+      </c>
+      <c r="I21" s="19">
+        <v>1</v>
+      </c>
+      <c r="J21" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="K21" s="24">
+      <c r="K21" s="23">
         <v>43487</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="16">
-        <v>2</v>
-      </c>
-      <c r="B22" s="17">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="15">
+        <v>2</v>
+      </c>
+      <c r="B22" s="16">
         <v>653655</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="D22" s="18">
-        <v>1</v>
-      </c>
-      <c r="G22" s="19">
-        <v>2</v>
-      </c>
-      <c r="H22" s="20">
-        <v>2</v>
-      </c>
-      <c r="I22" s="20">
-        <v>2</v>
-      </c>
-      <c r="J22" s="20" t="s">
+      <c r="D22" s="17">
+        <v>1</v>
+      </c>
+      <c r="G22" s="18">
+        <v>2</v>
+      </c>
+      <c r="H22" s="19">
+        <v>2</v>
+      </c>
+      <c r="I22" s="19">
+        <v>2</v>
+      </c>
+      <c r="J22" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="K22" s="24">
+      <c r="K22" s="23">
         <v>43486</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G23" s="16">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G23" s="15">
         <v>3</v>
       </c>
-      <c r="H23" s="17">
-        <v>1</v>
-      </c>
-      <c r="I23" s="17">
-        <v>2</v>
-      </c>
-      <c r="J23" s="17" t="s">
+      <c r="H23" s="16">
+        <v>1</v>
+      </c>
+      <c r="I23" s="16">
+        <v>2</v>
+      </c>
+      <c r="J23" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="K23" s="25">
+      <c r="K23" s="24">
         <v>43487</v>
       </c>
     </row>
@@ -2047,258 +2807,258 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="10" t="s">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B2" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="12"/>
-      <c r="F2" s="10" t="s">
+      <c r="C2" s="54"/>
+      <c r="D2" s="53"/>
+      <c r="F2" s="52" t="s">
         <v>115</v>
       </c>
-      <c r="G2" s="11"/>
-      <c r="H2" s="12"/>
-      <c r="J2" s="10" t="s">
+      <c r="G2" s="54"/>
+      <c r="H2" s="53"/>
+      <c r="J2" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="12"/>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="13" t="s">
+      <c r="K2" s="53"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B3" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="K3" s="14" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="16">
-        <v>1</v>
-      </c>
-      <c r="C4" s="17" t="s">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B4" s="15">
+        <v>1</v>
+      </c>
+      <c r="C4" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="F4" s="30">
-        <v>1</v>
-      </c>
-      <c r="G4" s="31" t="s">
+      <c r="F4" s="29">
+        <v>1</v>
+      </c>
+      <c r="G4" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="H4" s="39">
-        <v>1</v>
-      </c>
-      <c r="J4" s="30">
-        <v>1</v>
-      </c>
-      <c r="K4" s="39" t="s">
+      <c r="H4" s="38">
+        <v>1</v>
+      </c>
+      <c r="J4" s="29">
+        <v>1</v>
+      </c>
+      <c r="K4" s="38" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="F5" s="34">
-        <v>2</v>
-      </c>
-      <c r="G5" s="35" t="s">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="F5" s="33">
+        <v>2</v>
+      </c>
+      <c r="G5" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="H5" s="36">
-        <v>2</v>
-      </c>
-      <c r="J5" s="34">
-        <v>2</v>
-      </c>
-      <c r="K5" s="36" t="s">
+      <c r="H5" s="35">
+        <v>2</v>
+      </c>
+      <c r="J5" s="33">
+        <v>2</v>
+      </c>
+      <c r="K5" s="35" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="10" t="s">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B7" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
-      <c r="H7" s="10" t="s">
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="53"/>
+      <c r="H7" s="52" t="s">
         <v>123</v>
       </c>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="12"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="26" t="s">
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="53"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B8" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="F8" s="28" t="s">
+      <c r="F8" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="H8" s="26" t="s">
+      <c r="H8" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="I8" s="27" t="s">
+      <c r="I8" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="J8" s="27" t="s">
+      <c r="J8" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="K8" s="28" t="s">
+      <c r="K8" s="27" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="30">
-        <v>1</v>
-      </c>
-      <c r="C9" s="31" t="s">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B9" s="29">
+        <v>1</v>
+      </c>
+      <c r="C9" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="D9" s="31">
-        <v>1</v>
-      </c>
-      <c r="E9" s="32" t="s">
+      <c r="D9" s="30">
+        <v>1</v>
+      </c>
+      <c r="E9" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="F9" s="39">
+      <c r="F9" s="38">
         <v>12345</v>
       </c>
-      <c r="H9" s="30">
-        <v>1</v>
-      </c>
-      <c r="I9" s="31">
-        <v>1</v>
-      </c>
-      <c r="J9" s="31">
-        <v>1</v>
-      </c>
-      <c r="K9" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="30">
-        <v>2</v>
-      </c>
-      <c r="C10" s="31" t="s">
+      <c r="H9" s="29">
+        <v>1</v>
+      </c>
+      <c r="I9" s="30">
+        <v>1</v>
+      </c>
+      <c r="J9" s="30">
+        <v>1</v>
+      </c>
+      <c r="K9" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B10" s="29">
+        <v>2</v>
+      </c>
+      <c r="C10" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="D10" s="31">
-        <v>1</v>
-      </c>
-      <c r="E10" s="32" t="s">
+      <c r="D10" s="30">
+        <v>1</v>
+      </c>
+      <c r="E10" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="F10" s="39">
+      <c r="F10" s="38">
         <v>12345</v>
       </c>
-      <c r="H10" s="30">
-        <v>2</v>
-      </c>
-      <c r="I10" s="31">
-        <v>2</v>
-      </c>
-      <c r="J10" s="31">
-        <v>2</v>
-      </c>
-      <c r="K10" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="34">
+      <c r="H10" s="29">
+        <v>2</v>
+      </c>
+      <c r="I10" s="30">
+        <v>2</v>
+      </c>
+      <c r="J10" s="30">
+        <v>2</v>
+      </c>
+      <c r="K10" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B11" s="33">
         <v>3</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="D11" s="35">
+      <c r="D11" s="34">
         <v>0</v>
       </c>
-      <c r="E11" s="40" t="s">
+      <c r="E11" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="F11" s="36">
+      <c r="F11" s="35">
         <v>12345</v>
       </c>
-      <c r="H11" s="30">
+      <c r="H11" s="29">
         <v>3</v>
       </c>
-      <c r="I11" s="31">
-        <v>1</v>
-      </c>
-      <c r="J11" s="31">
+      <c r="I11" s="30">
+        <v>1</v>
+      </c>
+      <c r="J11" s="30">
         <v>3</v>
       </c>
-      <c r="K11" s="39">
+      <c r="K11" s="38">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="H12" s="34">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H12" s="33">
         <v>4</v>
       </c>
-      <c r="I12" s="35">
-        <v>2</v>
-      </c>
-      <c r="J12" s="35">
+      <c r="I12" s="34">
+        <v>2</v>
+      </c>
+      <c r="J12" s="34">
         <v>3</v>
       </c>
-      <c r="K12" s="36">
+      <c r="K12" s="35">
         <v>0</v>
       </c>
     </row>
@@ -2318,4 +3078,955 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B2" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="53"/>
+      <c r="E2" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2" s="10"/>
+      <c r="G2" s="11"/>
+      <c r="I2" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="J2" s="11"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B3" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B4" s="18">
+        <v>1</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4" s="29">
+        <v>1</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="G4" s="38">
+        <f>B4</f>
+        <v>1</v>
+      </c>
+      <c r="I4" s="18">
+        <v>1</v>
+      </c>
+      <c r="J4" s="21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B5" s="15">
+        <v>2</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="E5" s="33">
+        <v>2</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="G5" s="35">
+        <f>B5</f>
+        <v>2</v>
+      </c>
+      <c r="I5" s="15">
+        <v>2</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B7" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7" s="43"/>
+      <c r="E7" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="11"/>
+      <c r="I7" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="J7" s="10"/>
+      <c r="K7" s="11"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B8" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="I8" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="J8" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8" s="27" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B9" s="29">
+        <f>I4</f>
+        <v>1</v>
+      </c>
+      <c r="C9" s="38">
+        <f>E4</f>
+        <v>1</v>
+      </c>
+      <c r="E9" s="29">
+        <v>1</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="G9" s="38">
+        <f>E4</f>
+        <v>1</v>
+      </c>
+      <c r="I9" s="29">
+        <v>1</v>
+      </c>
+      <c r="J9" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="K9" s="38">
+        <f>E9</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B10" s="33">
+        <f>I5</f>
+        <v>2</v>
+      </c>
+      <c r="C10" s="35">
+        <f>E5</f>
+        <v>2</v>
+      </c>
+      <c r="E10" s="33">
+        <v>2</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="G10" s="35">
+        <f>E5</f>
+        <v>2</v>
+      </c>
+      <c r="I10" s="33">
+        <v>2</v>
+      </c>
+      <c r="J10" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="K10" s="35">
+        <f>E10</f>
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L24"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.44140625" customWidth="1"/>
+    <col min="9" max="9" width="19.88671875" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B6" s="52" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" s="53"/>
+      <c r="E6" s="52" t="s">
+        <v>150</v>
+      </c>
+      <c r="F6" s="54"/>
+      <c r="G6" s="53"/>
+      <c r="I6" s="52" t="s">
+        <v>155</v>
+      </c>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="53"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B7" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B8" s="18">
+        <v>1</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="E8" s="18">
+        <v>1</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="G8" s="21">
+        <f>B8</f>
+        <v>1</v>
+      </c>
+      <c r="I8" s="18">
+        <v>1</v>
+      </c>
+      <c r="J8" s="19">
+        <f>E8</f>
+        <v>1</v>
+      </c>
+      <c r="K8" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="L8" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B9" s="18">
+        <v>2</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="E9" s="18">
+        <v>2</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="G9" s="21">
+        <f>B9</f>
+        <v>2</v>
+      </c>
+      <c r="I9" s="18">
+        <v>2</v>
+      </c>
+      <c r="J9" s="19">
+        <v>2</v>
+      </c>
+      <c r="K9" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="L9" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B10" s="15">
+        <v>3</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="E10" s="15">
+        <v>3</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="G10" s="17">
+        <f>B10</f>
+        <v>3</v>
+      </c>
+      <c r="I10" s="18">
+        <v>3</v>
+      </c>
+      <c r="J10" s="19">
+        <v>3</v>
+      </c>
+      <c r="K10" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="L10" s="44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I11" s="45">
+        <v>4</v>
+      </c>
+      <c r="J11" s="16">
+        <v>1</v>
+      </c>
+      <c r="K11" s="46" t="s">
+        <v>166</v>
+      </c>
+      <c r="L11" s="47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D13" s="52" t="s">
+        <v>161</v>
+      </c>
+      <c r="E13" s="53"/>
+      <c r="G13" s="52" t="s">
+        <v>167</v>
+      </c>
+      <c r="H13" s="54"/>
+      <c r="I13" s="53"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D14" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D15" s="18">
+        <v>1</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="G15" s="18">
+        <v>1</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="I15" s="21">
+        <v>23324442444</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D16" s="15">
+        <v>2</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="G16" s="15">
+        <v>2</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="I16" s="17">
+        <v>32434554333</v>
+      </c>
+    </row>
+    <row r="19" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E19" s="52" t="s">
+        <v>169</v>
+      </c>
+      <c r="F19" s="54"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="53"/>
+    </row>
+    <row r="20" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E20" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="I20" s="14" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="21" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E21" s="18">
+        <v>1</v>
+      </c>
+      <c r="F21" s="37">
+        <f>G15</f>
+        <v>1</v>
+      </c>
+      <c r="G21" s="19">
+        <f>I8</f>
+        <v>1</v>
+      </c>
+      <c r="H21" s="20">
+        <v>43484</v>
+      </c>
+      <c r="I21" s="23">
+        <v>43485</v>
+      </c>
+    </row>
+    <row r="22" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E22" s="18">
+        <v>2</v>
+      </c>
+      <c r="F22" s="19">
+        <f>G15</f>
+        <v>1</v>
+      </c>
+      <c r="G22" s="19">
+        <f>I9</f>
+        <v>2</v>
+      </c>
+      <c r="H22" s="20">
+        <v>43485</v>
+      </c>
+      <c r="I22" s="23">
+        <v>43486</v>
+      </c>
+    </row>
+    <row r="23" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E23" s="18">
+        <v>3</v>
+      </c>
+      <c r="F23" s="19">
+        <f>G16</f>
+        <v>2</v>
+      </c>
+      <c r="G23" s="19">
+        <f>E10</f>
+        <v>3</v>
+      </c>
+      <c r="H23" s="20">
+        <v>43486</v>
+      </c>
+      <c r="I23" s="23">
+        <v>43486</v>
+      </c>
+    </row>
+    <row r="24" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E24" s="15">
+        <v>3</v>
+      </c>
+      <c r="F24" s="16">
+        <f>G16</f>
+        <v>2</v>
+      </c>
+      <c r="G24" s="16">
+        <f>E9</f>
+        <v>2</v>
+      </c>
+      <c r="H24" s="22">
+        <v>43487</v>
+      </c>
+      <c r="I24" s="24">
+        <v>43487</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="I6:L6"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K29"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.109375" customWidth="1"/>
+    <col min="11" max="11" width="12" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="13" max="13" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="20" customWidth="1"/>
+    <col min="16" max="16" width="15.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="D9" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="41"/>
+      <c r="H9" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="I9" s="10"/>
+      <c r="J9" s="11"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="33">
+        <v>1</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="D11" s="18">
+        <v>1</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="F11" s="44">
+        <v>1</v>
+      </c>
+      <c r="H11" s="18">
+        <v>1</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="J11" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D12" s="15">
+        <v>2</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="F12" s="47">
+        <v>1</v>
+      </c>
+      <c r="H12" s="18">
+        <v>2</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="J12" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="37"/>
+      <c r="H13" s="18">
+        <v>3</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="J13" s="44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="37"/>
+      <c r="H14" s="45">
+        <v>4</v>
+      </c>
+      <c r="I14" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="J14" s="47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="11"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="18">
+        <v>1</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="C19" s="19">
+        <v>25</v>
+      </c>
+      <c r="D19" s="38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="18">
+        <v>2</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="C20" s="19">
+        <v>100</v>
+      </c>
+      <c r="D20" s="38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="18">
+        <v>3</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="C21" s="19">
+        <v>350</v>
+      </c>
+      <c r="D21" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="45">
+        <v>4</v>
+      </c>
+      <c r="B22" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="C22" s="46">
+        <v>700</v>
+      </c>
+      <c r="D22" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="B24" s="11"/>
+      <c r="D24" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="11"/>
+      <c r="J24" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="K24" s="11"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="J25" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="K25" s="14" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="29">
+        <v>1</v>
+      </c>
+      <c r="B26" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="18">
+        <v>1</v>
+      </c>
+      <c r="E26" s="19">
+        <v>5455514</v>
+      </c>
+      <c r="F26" s="19">
+        <v>1</v>
+      </c>
+      <c r="G26" s="20">
+        <v>43487</v>
+      </c>
+      <c r="H26" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="J26" s="29">
+        <v>1</v>
+      </c>
+      <c r="K26" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="33">
+        <v>2</v>
+      </c>
+      <c r="B27" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" s="15">
+        <v>2</v>
+      </c>
+      <c r="E27" s="16">
+        <v>23232</v>
+      </c>
+      <c r="F27" s="16">
+        <v>2</v>
+      </c>
+      <c r="G27" s="22">
+        <v>43487</v>
+      </c>
+      <c r="H27" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="J27" s="29">
+        <v>1</v>
+      </c>
+      <c r="K27" s="38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J28" s="29">
+        <v>2</v>
+      </c>
+      <c r="K28" s="38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J29" s="33">
+        <v>2</v>
+      </c>
+      <c r="K29" s="35">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>